--- a/manual/output_1222_chunk_2.xlsx
+++ b/manual/output_1222_chunk_2.xlsx
@@ -10636,7 +10636,7 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>236.0175897500916</v>
+        <v>231.7985418541624</v>
       </c>
       <c r="E133" t="s">
         <v>2664</v>
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="D134">
-        <v>235.9015431612498</v>
+        <v>231.6866060938205</v>
       </c>
       <c r="E134" t="s">
         <v>2664</v>
@@ -13764,7 +13764,7 @@
         <v>332</v>
       </c>
       <c r="D317">
-        <v>1221.971884229466</v>
+        <v>1246.216580123642</v>
       </c>
       <c r="E317" t="s">
         <v>2665</v>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>4887.887536917863</v>
+        <v>4984.866320494566</v>
       </c>
       <c r="E318" t="s">
         <v>2664</v>
@@ -13832,7 +13832,7 @@
         <v>332</v>
       </c>
       <c r="D321">
-        <v>1223.03939028528</v>
+        <v>1252.129262029398</v>
       </c>
       <c r="E321" t="s">
         <v>2665</v>
@@ -13849,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>4892.15756114112</v>
+        <v>5008.51704811759</v>
       </c>
       <c r="E322" t="s">
         <v>2664</v>
@@ -17232,7 +17232,7 @@
         <v>2</v>
       </c>
       <c r="D521">
-        <v>480</v>
+        <v>481.5</v>
       </c>
       <c r="E521" t="s">
         <v>2664</v>
@@ -19493,7 +19493,7 @@
         <v>2</v>
       </c>
       <c r="D654">
-        <v>146</v>
+        <v>146.5</v>
       </c>
       <c r="E654" t="s">
         <v>2665</v>
@@ -19510,7 +19510,7 @@
         <v>1</v>
       </c>
       <c r="D655">
-        <v>2336</v>
+        <v>2344</v>
       </c>
       <c r="E655" t="s">
         <v>2664</v>
@@ -19561,7 +19561,7 @@
         <v>2</v>
       </c>
       <c r="D658">
-        <v>147.25</v>
+        <v>146.25</v>
       </c>
       <c r="E658" t="s">
         <v>2665</v>
@@ -19578,7 +19578,7 @@
         <v>1</v>
       </c>
       <c r="D659">
-        <v>2356</v>
+        <v>2340</v>
       </c>
       <c r="E659" t="s">
         <v>2664</v>
@@ -19595,7 +19595,7 @@
         <v>2</v>
       </c>
       <c r="D660">
-        <v>150.5</v>
+        <v>150.25</v>
       </c>
       <c r="E660" t="s">
         <v>2665</v>
@@ -19612,7 +19612,7 @@
         <v>1</v>
       </c>
       <c r="D661">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="E661" t="s">
         <v>2664</v>
@@ -20156,7 +20156,7 @@
         <v>23</v>
       </c>
       <c r="D693">
-        <v>147.7111070116566</v>
+        <v>150.7319261582611</v>
       </c>
       <c r="E693" t="s">
         <v>2665</v>
@@ -20173,7 +20173,7 @@
         <v>2</v>
       </c>
       <c r="D694">
-        <v>886.2666420699394</v>
+        <v>904.3915569495664</v>
       </c>
       <c r="E694" t="s">
         <v>2664</v>
@@ -20190,7 +20190,7 @@
         <v>1</v>
       </c>
       <c r="D695">
-        <v>3545.066568279758</v>
+        <v>3617.566227798266</v>
       </c>
       <c r="E695" t="s">
         <v>2664</v>
@@ -20207,7 +20207,7 @@
         <v>23</v>
       </c>
       <c r="D696">
-        <v>147.3735220132623</v>
+        <v>150.3804085917909</v>
       </c>
       <c r="E696" t="s">
         <v>2665</v>
@@ -20224,7 +20224,7 @@
         <v>2</v>
       </c>
       <c r="D697">
-        <v>884.2411320795736</v>
+        <v>902.2824515507455</v>
       </c>
       <c r="E697" t="s">
         <v>2664</v>
@@ -20241,7 +20241,7 @@
         <v>1</v>
       </c>
       <c r="D698">
-        <v>3536.964528318294</v>
+        <v>3609.129806202982</v>
       </c>
       <c r="E698" t="s">
         <v>2664</v>
@@ -20666,7 +20666,7 @@
         <v>1</v>
       </c>
       <c r="D723">
-        <v>356</v>
+        <v>356.5</v>
       </c>
       <c r="E723" t="s">
         <v>2664</v>
@@ -26276,7 +26276,7 @@
         <v>1</v>
       </c>
       <c r="D1053">
-        <v>697.5</v>
+        <v>696.75</v>
       </c>
       <c r="E1053" t="s">
         <v>2664</v>
@@ -28877,7 +28877,7 @@
         <v>3</v>
       </c>
       <c r="D1206">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E1206" t="s">
         <v>2665</v>
@@ -28894,7 +28894,7 @@
         <v>1</v>
       </c>
       <c r="D1207">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="E1207" t="s">
         <v>2664</v>
@@ -28911,7 +28911,7 @@
         <v>7</v>
       </c>
       <c r="D1208">
-        <v>191.25</v>
+        <v>193</v>
       </c>
       <c r="E1208" t="s">
         <v>2665</v>
@@ -28928,7 +28928,7 @@
         <v>1</v>
       </c>
       <c r="D1209">
-        <v>1912.5</v>
+        <v>1930</v>
       </c>
       <c r="E1209" t="s">
         <v>2664</v>
@@ -28945,7 +28945,7 @@
         <v>7</v>
       </c>
       <c r="D1210">
-        <v>86.75</v>
+        <v>87.25</v>
       </c>
       <c r="E1210" t="s">
         <v>2665</v>
@@ -28962,7 +28962,7 @@
         <v>1</v>
       </c>
       <c r="D1211">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="E1211" t="s">
         <v>2664</v>
@@ -28979,7 +28979,7 @@
         <v>7</v>
       </c>
       <c r="D1212">
-        <v>104.25</v>
+        <v>106.75</v>
       </c>
       <c r="E1212" t="s">
         <v>2665</v>
@@ -28996,7 +28996,7 @@
         <v>1</v>
       </c>
       <c r="D1213">
-        <v>1876.5</v>
+        <v>1921.5</v>
       </c>
       <c r="E1213" t="s">
         <v>2664</v>
@@ -29149,7 +29149,7 @@
         <v>7</v>
       </c>
       <c r="D1222">
-        <v>137.5</v>
+        <v>138.75</v>
       </c>
       <c r="E1222" t="s">
         <v>2665</v>
@@ -29166,7 +29166,7 @@
         <v>1</v>
       </c>
       <c r="D1223">
-        <v>2750</v>
+        <v>2775</v>
       </c>
       <c r="E1223" t="s">
         <v>2664</v>
@@ -29217,7 +29217,7 @@
         <v>7</v>
       </c>
       <c r="D1226">
-        <v>103.4393411555664</v>
+        <v>103.7984202315906</v>
       </c>
       <c r="E1226" t="s">
         <v>2665</v>
@@ -29234,7 +29234,7 @@
         <v>1</v>
       </c>
       <c r="D1227">
-        <v>2068.786823111329</v>
+        <v>2075.968404631813</v>
       </c>
       <c r="E1227" t="s">
         <v>2664</v>
@@ -29251,7 +29251,7 @@
         <v>7</v>
       </c>
       <c r="D1228">
-        <v>103.5027879984092</v>
+        <v>104.2116718320344</v>
       </c>
       <c r="E1228" t="s">
         <v>2665</v>
@@ -29268,7 +29268,7 @@
         <v>1</v>
       </c>
       <c r="D1229">
-        <v>2070.055759968185</v>
+        <v>2084.233436640688</v>
       </c>
       <c r="E1229" t="s">
         <v>2664</v>
@@ -29353,7 +29353,7 @@
         <v>7</v>
       </c>
       <c r="D1234">
-        <v>115</v>
+        <v>117.75</v>
       </c>
       <c r="E1234" t="s">
         <v>2665</v>
@@ -29370,7 +29370,7 @@
         <v>1</v>
       </c>
       <c r="D1235">
-        <v>1380</v>
+        <v>1413</v>
       </c>
       <c r="E1235" t="s">
         <v>2664</v>
@@ -29489,7 +29489,7 @@
         <v>7</v>
       </c>
       <c r="D1242">
-        <v>106.5</v>
+        <v>107</v>
       </c>
       <c r="E1242" t="s">
         <v>2665</v>
@@ -29506,7 +29506,7 @@
         <v>1</v>
       </c>
       <c r="D1243">
-        <v>2130</v>
+        <v>2140</v>
       </c>
       <c r="E1243" t="s">
         <v>2664</v>
@@ -30373,7 +30373,7 @@
         <v>2</v>
       </c>
       <c r="D1294">
-        <v>488.25</v>
+        <v>489.75</v>
       </c>
       <c r="E1294" t="s">
         <v>2664</v>
@@ -31376,7 +31376,7 @@
         <v>332</v>
       </c>
       <c r="D1353">
-        <v>131.75</v>
+        <v>134</v>
       </c>
       <c r="E1353" t="s">
         <v>2665</v>
@@ -31393,7 +31393,7 @@
         <v>1</v>
       </c>
       <c r="D1354">
-        <v>1317.5</v>
+        <v>1340</v>
       </c>
       <c r="E1354" t="s">
         <v>2664</v>
@@ -32362,7 +32362,7 @@
         <v>1</v>
       </c>
       <c r="D1411">
-        <v>564.25</v>
+        <v>564.75</v>
       </c>
       <c r="E1411" t="s">
         <v>2664</v>
@@ -32413,7 +32413,7 @@
         <v>1</v>
       </c>
       <c r="D1414">
-        <v>540.5</v>
+        <v>549.75</v>
       </c>
       <c r="E1414" t="s">
         <v>2664</v>
@@ -33399,7 +33399,7 @@
         <v>7</v>
       </c>
       <c r="D1472">
-        <v>236.25</v>
+        <v>239</v>
       </c>
       <c r="E1472" t="s">
         <v>2665</v>
@@ -33416,7 +33416,7 @@
         <v>1</v>
       </c>
       <c r="D1473">
-        <v>2835</v>
+        <v>2868</v>
       </c>
       <c r="E1473" t="s">
         <v>2664</v>
@@ -36629,7 +36629,7 @@
         <v>7</v>
       </c>
       <c r="D1662">
-        <v>110.5898316817215</v>
+        <v>112.0182299598336</v>
       </c>
       <c r="E1662" t="s">
         <v>2665</v>
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="D1663">
-        <v>1880.027138589265</v>
+        <v>1904.309909317172</v>
       </c>
       <c r="E1663" t="s">
         <v>2664</v>
@@ -36663,7 +36663,7 @@
         <v>7</v>
       </c>
       <c r="D1664">
-        <v>110.6370173076907</v>
+        <v>112.3310667844548</v>
       </c>
       <c r="E1664" t="s">
         <v>2665</v>
@@ -36680,7 +36680,7 @@
         <v>1</v>
       </c>
       <c r="D1665">
-        <v>1880.829294230742</v>
+        <v>1909.628135335731</v>
       </c>
       <c r="E1665" t="s">
         <v>2664</v>
@@ -44262,7 +44262,7 @@
         <v>2</v>
       </c>
       <c r="D2111">
-        <v>163.25</v>
+        <v>162.75</v>
       </c>
       <c r="E2111" t="s">
         <v>2664</v>
@@ -44347,7 +44347,7 @@
         <v>3</v>
       </c>
       <c r="D2116">
-        <v>138.75</v>
+        <v>139</v>
       </c>
       <c r="E2116" t="s">
         <v>2665</v>
@@ -44364,7 +44364,7 @@
         <v>1</v>
       </c>
       <c r="D2117">
-        <v>832.5</v>
+        <v>834</v>
       </c>
       <c r="E2117" t="s">
         <v>2664</v>
@@ -45401,7 +45401,7 @@
         <v>2</v>
       </c>
       <c r="D2178">
-        <v>198.75</v>
+        <v>198.5</v>
       </c>
       <c r="E2178" t="s">
         <v>2665</v>
@@ -45418,7 +45418,7 @@
         <v>1</v>
       </c>
       <c r="D2179">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E2179" t="s">
         <v>2664</v>
@@ -46081,7 +46081,7 @@
         <v>2</v>
       </c>
       <c r="D2218">
-        <v>597.25</v>
+        <v>599</v>
       </c>
       <c r="E2218" t="s">
         <v>2664</v>
@@ -50365,7 +50365,7 @@
         <v>3</v>
       </c>
       <c r="D2470">
-        <v>77.75</v>
+        <v>78</v>
       </c>
       <c r="E2470" t="s">
         <v>2665</v>
@@ -50382,7 +50382,7 @@
         <v>1</v>
       </c>
       <c r="D2471">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E2471" t="s">
         <v>2664</v>
@@ -57896,7 +57896,7 @@
         <v>1</v>
       </c>
       <c r="D2913">
-        <v>79.25</v>
+        <v>79</v>
       </c>
       <c r="E2913" t="s">
         <v>2664</v>
@@ -57913,7 +57913,7 @@
         <v>1</v>
       </c>
       <c r="D2914">
-        <v>87</v>
+        <v>87.25</v>
       </c>
       <c r="E2914" t="s">
         <v>2664</v>
@@ -59324,7 +59324,7 @@
         <v>25</v>
       </c>
       <c r="D2997">
-        <v>510.5</v>
+        <v>510.75</v>
       </c>
       <c r="E2997" t="s">
         <v>2665</v>
@@ -59341,7 +59341,7 @@
         <v>1</v>
       </c>
       <c r="D2998">
-        <v>1021</v>
+        <v>1021.5</v>
       </c>
       <c r="E2998" t="s">
         <v>2664</v>
@@ -59664,7 +59664,7 @@
         <v>332</v>
       </c>
       <c r="D3017">
-        <v>868.4712748867721</v>
+        <v>889.1277788396117</v>
       </c>
       <c r="E3017" t="s">
         <v>2665</v>
@@ -59681,7 +59681,7 @@
         <v>1</v>
       </c>
       <c r="D3018">
-        <v>3473.885099547088</v>
+        <v>3556.511115358447</v>
       </c>
       <c r="E3018" t="s">
         <v>2664</v>
@@ -66022,7 +66022,7 @@
         <v>3</v>
       </c>
       <c r="D3391">
-        <v>250.75</v>
+        <v>253.5</v>
       </c>
       <c r="E3391" t="s">
         <v>2665</v>
@@ -66039,7 +66039,7 @@
         <v>1</v>
       </c>
       <c r="D3392">
-        <v>6018</v>
+        <v>6084</v>
       </c>
       <c r="E3392" t="s">
         <v>2664</v>
@@ -70255,7 +70255,7 @@
         <v>7</v>
       </c>
       <c r="D3640">
-        <v>162.75</v>
+        <v>165.5</v>
       </c>
       <c r="E3640" t="s">
         <v>2665</v>
@@ -70272,7 +70272,7 @@
         <v>1</v>
       </c>
       <c r="D3641">
-        <v>1953</v>
+        <v>1986</v>
       </c>
       <c r="E3641" t="s">
         <v>2664</v>
@@ -70391,7 +70391,7 @@
         <v>332</v>
       </c>
       <c r="D3648">
-        <v>865.0955235553193</v>
+        <v>885.6717355943807</v>
       </c>
       <c r="E3648" t="s">
         <v>2665</v>
@@ -70408,7 +70408,7 @@
         <v>1</v>
       </c>
       <c r="D3649">
-        <v>3460.382094221277</v>
+        <v>3542.686942377523</v>
       </c>
       <c r="E3649" t="s">
         <v>2664</v>
@@ -72193,7 +72193,7 @@
         <v>7</v>
       </c>
       <c r="D3754">
-        <v>129.5</v>
+        <v>130.75</v>
       </c>
       <c r="E3754" t="s">
         <v>2665</v>
@@ -72210,7 +72210,7 @@
         <v>1</v>
       </c>
       <c r="D3755">
-        <v>2590</v>
+        <v>2615</v>
       </c>
       <c r="E3755" t="s">
         <v>2664</v>
